--- a/Datos/Database by set/Set with text box/Xlsx sets/Saviors of Kamigawa Promos (PSOK).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Saviors of Kamigawa Promos (PSOK).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,91 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ghost-Lit Raider</t>
+          <t>('Ghost-Lit Raider', ['{2}{R}', 'Creature — Spirit', '{2}{R}, {T}: Ghost-Lit Raider deals 2 damage to target creature.', 'Channel — {3}{R}, Discard Ghost-Lit Raider: It deals 4 damage to target creature.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>{2}{R}, {T}: Ghost-Lit Raider deals 2 damage to target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Channel — {3}{R}, Discard Ghost-Lit Raider: It deals 4 damage to target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Kiyomaro, First to Stand</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{3}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Kiyomaro, First to Stand’s power and toughness are each equal to the number of cards in your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>As long as you have four or more cards in hand, Kiyomaro has vigilance.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Whenever Kiyomaro deals damage, if you have seven or more cards in hand, you gain 7 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>*/*</t>
+          <t>('Kiyomaro, First to Stand', ['{3}{W}{W}', 'Legendary Creature — Spirit', 'Kiyomaro, First to Stand’s power and toughness are each equal to the number of cards in your hand.', 'As long as you have four or more cards in hand, Kiyomaro has vigilance.', 'Whenever Kiyomaro deals damage, if you have seven or more cards in hand, you gain 7 life.', '*/*'])</t>
         </is>
       </c>
     </row>
